--- a/src/test/resources/dataprovider/login_data.xlsx
+++ b/src/test/resources/dataprovider/login_data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="21690" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -28,12 +29,6 @@
   </si>
   <si>
     <t>UjapUmu</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>def</t>
   </si>
 </sst>
 </file>
@@ -375,7 +370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -398,14 +395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/dataprovider/login_data.xlsx
+++ b/src/test/resources/dataprovider/login_data.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -368,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -395,7 +394,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
